--- a/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.20 - 6.21 Group Life_v2.xlsx
+++ b/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.20 - 6.21 Group Life_v2.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Course Development\Fellowship\LIaR Modules\LIaR Valuation\2019 Review for 2020 delivery\S1 2020 Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jizhu\Documents\GitHub\my_file\LIRV\Textbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51E534E4-8E8B-43E8-9B5E-1DDD7DE08D75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="9060" xr2:uid="{106DF02E-0C79-4E47-9258-A2013446BEA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="6.20" sheetId="4" r:id="rId1"/>
     <sheet name="6.21" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Premiums</t>
   </si>
@@ -100,9 +99,6 @@
     <t>PVFPM</t>
   </si>
   <si>
-    <t>PV AERC carrier</t>
-  </si>
-  <si>
     <t>AERC %</t>
   </si>
   <si>
@@ -110,16 +106,22 @@
   </si>
   <si>
     <t>Table 6.20: Group risk policy – projection method</t>
+  </si>
+  <si>
+    <t>Profit - Vinc</t>
+  </si>
+  <si>
+    <t>PV AER carrier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +151,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +184,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -189,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -223,6 +244,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -539,18 +566,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC116A2E-3661-4CC2-B925-57B589DAE075}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
@@ -583,6 +610,9 @@
       </c>
       <c r="J4" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -610,6 +640,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="9"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -648,7 +679,10 @@
         <f t="shared" ref="J6:J11" si="2">$M$7*C6</f>
         <v>51.19047619047619</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="16">
+        <f>E6-(I6-I5)</f>
+        <v>51.190476190476204</v>
+      </c>
       <c r="L6" t="s">
         <v>17</v>
       </c>
@@ -694,7 +728,10 @@
         <f>$M$7*C7</f>
         <v>51.19047619047619</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="16">
+        <f t="shared" ref="K7:K11" si="4">E7-(I7-I6)</f>
+        <v>51.190476190476204</v>
+      </c>
       <c r="L7" t="s">
         <v>18</v>
       </c>
@@ -721,11 +758,11 @@
         <v>603.75</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" ref="F8:F11" si="4">SUM(C9:C103)</f>
+        <f t="shared" ref="F8:F11" si="5">SUM(C9:C103)</f>
         <v>1300</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" ref="G8:G11" si="5">SUM(C9:C13)+SUM(D9:D13)-SUM(B9:B13)</f>
+        <f t="shared" ref="G8:G11" si="6">SUM(C9:C13)+SUM(D9:D13)-SUM(B9:B13)</f>
         <v>281.25</v>
       </c>
       <c r="H8" s="9">
@@ -740,7 +777,10 @@
         <f>$M$7*C8</f>
         <v>53.749999999999993</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="16">
+        <f t="shared" si="4"/>
+        <v>53.75</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -760,11 +800,11 @@
         <v>-446.25</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>880</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-165</v>
       </c>
       <c r="H9" s="9">
@@ -779,7 +819,10 @@
         <f t="shared" si="2"/>
         <v>53.749999999999993</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="16">
+        <f t="shared" si="4"/>
+        <v>53.75</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -799,11 +842,11 @@
         <v>632.5</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>440</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>467.5</v>
       </c>
       <c r="H10" s="9">
@@ -818,7 +861,10 @@
         <f>$M$7*C10</f>
         <v>56.309523809523803</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="16">
+        <f t="shared" si="4"/>
+        <v>56.309523809523739</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -838,11 +884,11 @@
         <v>-467.5</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H11" s="9">
@@ -857,7 +903,10 @@
         <f t="shared" si="2"/>
         <v>56.309523809523803</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="16">
+        <f t="shared" si="4"/>
+        <v>56.309523809523853</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I12" s="1"/>
@@ -873,18 +922,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4500AD3E-4F7C-4776-BA8A-B5E34EDC955C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
@@ -907,7 +954,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>16</v>
@@ -1077,7 +1124,7 @@
         <v>53.75</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2">
         <f>150/L7</f>
@@ -1113,7 +1160,7 @@
         <v>1100</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" ref="H9:H11" si="3">$L$8*G9</f>
+        <f>$L$8*G9</f>
         <v>52.38095238095238</v>
       </c>
       <c r="I9" s="12">
@@ -1153,11 +1200,11 @@
         <v>550</v>
       </c>
       <c r="H10" s="12">
-        <f t="shared" si="3"/>
+        <f>$L$8*G10</f>
         <v>26.19047619047619</v>
       </c>
       <c r="I10" s="12">
-        <f t="shared" ref="I10:I11" si="4">F10-H10</f>
+        <f t="shared" ref="I10:I11" si="3">F10-H10</f>
         <v>523.80952380952385</v>
       </c>
       <c r="J10" s="12">
@@ -1189,15 +1236,15 @@
         <v>0</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" ref="G11" si="5">SUM(B12:B16)+F11</f>
+        <f t="shared" ref="G11" si="4">SUM(B12:B16)+F11</f>
         <v>0</v>
       </c>
       <c r="H11" s="12">
+        <f>$L$8*G11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J11" s="12">

--- a/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.20 - 6.21 Group Life_v2.xlsx
+++ b/LIRV/Textbook/LI&R Valuation S1 2020 M06 Table 6.20 - 6.21 Group Life_v2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jizhu\Documents\GitHub\my_file\LIRV\Textbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VZhu\Documents\GitHub\my_file\LIRV\Textbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="9060"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="6.20" sheetId="4" r:id="rId1"/>
@@ -30,8 +30,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Vincent Zhu</author>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">plus </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UPR</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Premiums</t>
   </si>
@@ -87,9 +120,6 @@
     <t>BEL (t=0)</t>
   </si>
   <si>
-    <t>PM</t>
-  </si>
-  <si>
     <t>At t = 0</t>
   </si>
   <si>
@@ -112,16 +142,22 @@
   </si>
   <si>
     <t>PV AER carrier</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>*Premium is the driver as it is relatively certain over the 3 years although under accumulation method</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +193,34 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -210,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -250,6 +314,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -569,15 +637,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
@@ -603,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>7</v>
@@ -612,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -733,7 +804,7 @@
         <v>51.190476190476204</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2">
         <f>-M6/F5</f>
@@ -922,16 +993,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
@@ -954,7 +1027,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>16</v>
@@ -979,15 +1052,16 @@
       <c r="F5" s="12">
         <v>0</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="18">
         <f>SUM(B6:B11)+F5</f>
         <v>3150</v>
       </c>
       <c r="H5" s="12">
+        <f>D5</f>
         <v>150</v>
       </c>
       <c r="I5" s="12">
-        <f>F5-H5</f>
+        <f t="shared" ref="I5:I10" si="0">F5-H5</f>
         <v>-150</v>
       </c>
       <c r="J5" s="12">
@@ -1016,24 +1090,24 @@
         <f>B6*0.5</f>
         <v>500</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="18">
         <f>SUM(B7:B11)+F6</f>
         <v>2650</v>
       </c>
       <c r="H6" s="12">
-        <f>$L$8*G6</f>
+        <f t="shared" ref="H6:H11" si="1">$L$8*G6</f>
         <v>126.19047619047619</v>
       </c>
       <c r="I6" s="12">
-        <f>F6-H6</f>
+        <f t="shared" si="0"/>
         <v>373.8095238095238</v>
       </c>
       <c r="J6" s="12">
-        <f t="shared" ref="J6:J11" si="0">B6-C6-D6-(I6-I5)</f>
+        <f>E6-(I6-I5)</f>
         <v>51.190476190476147</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N6" s="1"/>
     </row>
@@ -1051,35 +1125,38 @@
         <v>25</v>
       </c>
       <c r="E7" s="12">
-        <f t="shared" ref="E7:E11" si="1">B7-C7-D7</f>
+        <f t="shared" ref="E7:E11" si="2">B7-C7-D7</f>
         <v>-425</v>
       </c>
       <c r="F7" s="12">
         <f>B7*0.5</f>
         <v>0</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="18">
         <f>SUM(B8:B12)+F7</f>
         <v>2150</v>
       </c>
       <c r="H7" s="12">
-        <f>$L$8*G7</f>
+        <f t="shared" si="1"/>
         <v>102.38095238095238</v>
       </c>
       <c r="I7" s="12">
-        <f>F7-H7</f>
+        <f t="shared" si="0"/>
         <v>-102.38095238095238</v>
       </c>
       <c r="J7" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J7:J11" si="3">E7-(I7-I6)</f>
         <v>51.190476190476147</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" s="1">
         <f>SUM(B6:B11)</f>
         <v>3150</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1100,34 +1177,34 @@
         <v>26.25</v>
       </c>
       <c r="E8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>603.75</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" ref="F8:F11" si="2">B8*0.5</f>
+        <f t="shared" ref="F8:F11" si="4">B8*0.5</f>
         <v>525</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="18">
         <f>SUM(B9:B13)+F8</f>
         <v>1625</v>
       </c>
       <c r="H8" s="12">
-        <f>$L$8*G8</f>
+        <f t="shared" si="1"/>
         <v>77.38095238095238</v>
       </c>
       <c r="I8" s="12">
-        <f>F8-H8</f>
+        <f t="shared" si="0"/>
         <v>447.61904761904759</v>
       </c>
       <c r="J8" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>53.75</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2">
-        <f>150/L7</f>
+        <f>D5/L7</f>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="N8" s="7"/>
@@ -1148,27 +1225,27 @@
         <v>26.25</v>
       </c>
       <c r="E9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-446.25</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
         <f>SUM(B10:B14)+F9</f>
         <v>1100</v>
       </c>
       <c r="H9" s="12">
-        <f>$L$8*G9</f>
+        <f t="shared" si="1"/>
         <v>52.38095238095238</v>
       </c>
       <c r="I9" s="12">
-        <f>F9-H9</f>
+        <f t="shared" si="0"/>
         <v>-52.38095238095238</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>53.75</v>
       </c>
       <c r="N9" s="7"/>
@@ -1188,27 +1265,27 @@
         <v>27.5</v>
       </c>
       <c r="E10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>632.5</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>550</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="18">
         <f>SUM(B11:B15)+F10</f>
         <v>550</v>
       </c>
       <c r="H10" s="12">
-        <f>$L$8*G10</f>
+        <f t="shared" si="1"/>
         <v>26.19047619047619</v>
       </c>
       <c r="I10" s="12">
-        <f t="shared" ref="I10:I11" si="3">F10-H10</f>
+        <f t="shared" si="0"/>
         <v>523.80952380952385</v>
       </c>
       <c r="J10" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>56.309523809523739</v>
       </c>
       <c r="N10" s="7"/>
@@ -1228,27 +1305,27 @@
         <v>27.5</v>
       </c>
       <c r="E11" s="12">
+        <f t="shared" si="2"/>
+        <v>-467.5</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <f t="shared" ref="G11" si="5">SUM(B12:B16)+F11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
         <f t="shared" si="1"/>
-        <v>-467.5</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <f t="shared" ref="G11" si="4">SUM(B12:B16)+F11</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <f>$L$8*G11</f>
         <v>0</v>
       </c>
       <c r="I11" s="12">
+        <f t="shared" ref="I11" si="6">F11-H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="0"/>
         <v>56.309523809523853</v>
       </c>
     </row>
@@ -1275,5 +1352,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>